--- a/downloaded_files/CHES402_Lecture-35809.xlsx
+++ b/downloaded_files/CHES402_Lecture-35809.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Karim Amr Mohamed Fahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1190572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عطا على السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Atta Ali Elsayed</x:t>
   </x:si>
   <x:si>
     <x:t>1200258</x:t>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -892,7 +901,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6879476852</x:v>
+        <x:v>45936.5615258102</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -924,7 +933,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.7435340278</x:v>
+        <x:v>45906.6879476852</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -956,7 +965,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4153913194</x:v>
+        <x:v>45906.7435340278</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -973,6 +982,38 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45909.4153913194</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
